--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Khaleel" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Objective CAN</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Task 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating a Project</t>
+    <t xml:space="preserve">AWS role creation and rule engine</t>
   </si>
   <si>
     <t xml:space="preserve">HIGH</t>
@@ -61,13 +61,10 @@
     <t xml:space="preserve">In Progrees </t>
   </si>
   <si>
-    <t xml:space="preserve">Taken, Completed</t>
+    <t xml:space="preserve">working on role creation with esp32</t>
   </si>
   <si>
     <t xml:space="preserve">Task 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunil</t>
   </si>
   <si>
     <t xml:space="preserve">Task 3</t>
@@ -168,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +180,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -204,11 +205,16 @@
   </sheetPr>
   <dimension ref="C3:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
+  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="n">
@@ -252,36 +258,34 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -310,18 +314,18 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -343,26 +347,26 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -387,7 +391,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -406,11 +410,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Khaleel" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t xml:space="preserve">Objective CAN</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t xml:space="preserve">db table- history page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernhill website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahamath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload to fernhill server is pending</t>
   </si>
 </sst>
 </file>
@@ -205,8 +220,8 @@
   </sheetPr>
   <dimension ref="C3:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,14 +423,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Khaleel" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t xml:space="preserve">Objective CAN</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Khaee1</t>
   </si>
   <si>
-    <t xml:space="preserve">In Progrees </t>
+    <t xml:space="preserve">In Progress </t>
   </si>
   <si>
     <t xml:space="preserve">working on role creation with esp32</t>
@@ -67,6 +67,21 @@
     <t xml:space="preserve">Task 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Currently working on pendios dashboard functionalities with Arun and Rahamath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun, Rahamath and Khaleel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action page is under progress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task 3</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sunil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress </t>
   </si>
   <si>
     <t xml:space="preserve">17-jun</t>
@@ -248,13 +260,13 @@
   </sheetPr>
   <dimension ref="C3:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.42"/>
   </cols>
@@ -324,11 +336,25 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -353,11 +379,11 @@
   </sheetPr>
   <dimension ref="A3:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="10.58"/>
@@ -368,7 +394,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -391,25 +417,25 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,22 +443,22 @@
         <v>44364</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -457,12 +483,12 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
@@ -504,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +567,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="n">
@@ -566,7 +592,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -589,25 +615,25 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +644,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Khaleel" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>Objective CAN</t>
   </si>
@@ -229,15 +229,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,6 +242,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,68 +566,68 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>44363</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
@@ -636,7 +636,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
@@ -647,7 +647,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -665,86 +665,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>44364</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H5" t="s">
@@ -752,96 +752,96 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>44375</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>44380</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -851,10 +851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,53 +868,145 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>44363</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44375</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44380</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -936,46 +1028,46 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>44363</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -983,33 +1075,33 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_repo\Projects\03_WeeklyTask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Khaleel" sheetId="1" r:id="rId1"/>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
@@ -191,21 +186,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,76 +489,76 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="69.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
         <v>44363</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
@@ -572,7 +567,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
@@ -582,8 +577,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -601,82 +596,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>44364</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
@@ -697,62 +692,62 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>44363</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -769,81 +764,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="A3:H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>44363</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -852,18 +847,18 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -297,6 +297,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.58"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/03_WeeklyTask/WeeklyTracker.xlsx
+++ b/03_WeeklyTask/WeeklyTracker.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Objective CAN</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t xml:space="preserve">resolved the issue </t>
+  </si>
+  <si>
+    <t>Working on Pendios Project flow diagram and Programming</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 3 </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Internal ADC with CAN(Master is Tx and Slave is RX)</t>
   </si>
 </sst>
 </file>
@@ -196,17 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,6 +223,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +539,7 @@
   <dimension ref="B3:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -524,68 +551,68 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>44363</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
@@ -594,7 +621,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
@@ -608,7 +635,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -644,76 +671,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>44364</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
@@ -728,17 +755,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -746,51 +773,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>44363</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>44377</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -813,46 +877,46 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:8">
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>44363</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -860,27 +924,27 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -889,18 +953,18 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
